--- a/LabJackPrototyp/unnamed.xlsx
+++ b/LabJackPrototyp/unnamed.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B98"/>
+  <dimension ref="A1:F119"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,790 +437,2174 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Ticks Passed</t>
+          <t>Measure Serie</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Channel 1</t>
+          <t>IC</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>UCE</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>UBE</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>IB</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Estimation Results</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>219</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>7.915496826171875e-05</v>
+        <v>0.0003957748413085938</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.0007915496826171875</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Measure Serie: 1</t>
+        </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>220</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
+        <v>0.0003957748413085938</v>
+      </c>
+      <c r="C3" t="n">
         <v>7.915496826171875e-05</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>UEarly: -6.13V</t>
+        </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>221</v>
+        <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>0.0003957748413085938</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.0007915496826171875</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>B: 0</t>
+        </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>222</v>
+        <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>7.915496826171875e-05</v>
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Measure Point Amount: 117</t>
+        </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>223</v>
+        <v>1</v>
       </c>
       <c r="B6" t="n">
+        <v>0.0003957748413085938</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
         <v>7.915496826171875e-05</v>
       </c>
+      <c r="E6" t="n">
+        <v>0.0007915496826171875</v>
+      </c>
+      <c r="F6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>224</v>
+        <v>1</v>
       </c>
       <c r="B7" t="n">
-        <v>7.915496826171875e-05</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.0007915496826171875</v>
+      </c>
+      <c r="F7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>225</v>
+        <v>1</v>
       </c>
       <c r="B8" t="n">
-        <v>7.915496826171875e-05</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>226</v>
+        <v>1</v>
       </c>
       <c r="B9" t="n">
-        <v>7.915496826171875e-05</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.0007915496826171875</v>
+      </c>
+      <c r="F9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>227</v>
+        <v>1</v>
       </c>
       <c r="B10" t="n">
         <v>0</v>
       </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>7.915496826171875e-05</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>228</v>
+        <v>1</v>
       </c>
       <c r="B11" t="n">
         <v>0</v>
       </c>
+      <c r="C11" t="n">
+        <v>7.915496826171875e-05</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>229</v>
+        <v>1</v>
       </c>
       <c r="B12" t="n">
         <v>0</v>
       </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>230</v>
+        <v>1</v>
       </c>
       <c r="B13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" t="n">
         <v>7.915496826171875e-05</v>
       </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>231</v>
+        <v>1</v>
       </c>
       <c r="B14" t="n">
+        <v>0.0003957748413085938</v>
+      </c>
+      <c r="C14" t="n">
         <v>7.915496826171875e-05</v>
       </c>
+      <c r="D14" t="n">
+        <v>7.915496826171875e-05</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.0007915496826171875</v>
+      </c>
+      <c r="F14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>232</v>
+        <v>1</v>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
-      </c>
+        <v>0.0003957748413085938</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>233</v>
+        <v>1</v>
       </c>
       <c r="B16" t="n">
-        <v>7.915496826171875e-05</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>234</v>
+        <v>1</v>
       </c>
       <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
         <v>7.915496826171875e-05</v>
       </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.0007915496826171875</v>
+      </c>
+      <c r="F17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>235</v>
+        <v>1</v>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
-      </c>
+        <v>6.544103622436523</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>29.01371479034424</v>
+      </c>
+      <c r="F18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>236</v>
+        <v>1</v>
       </c>
       <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
         <v>7.915496826171875e-05</v>
       </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>237</v>
+        <v>1</v>
       </c>
       <c r="B20" t="n">
         <v>0</v>
       </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>7.915496826171875e-05</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>238</v>
+        <v>1</v>
       </c>
       <c r="B21" t="n">
         <v>0</v>
       </c>
+      <c r="C21" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" t="n">
+        <v>7.915496826171875e-05</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.0007915496826171875</v>
+      </c>
+      <c r="F21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>239</v>
+        <v>1</v>
       </c>
       <c r="B22" t="n">
         <v>0</v>
       </c>
+      <c r="C22" t="n">
+        <v>7.915496826171875e-05</v>
+      </c>
+      <c r="D22" t="n">
+        <v>7.915496826171875e-05</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.0007915496826171875</v>
+      </c>
+      <c r="F22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>240</v>
+        <v>1</v>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
-      </c>
+        <v>6.670346260070801</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.02485466003417969</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>241</v>
+        <v>1</v>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
-      </c>
+        <v>0.0003957748413085938</v>
+      </c>
+      <c r="C24" t="n">
+        <v>7.915496826171875e-05</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>242</v>
+        <v>1</v>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
-      </c>
+        <v>3.291382789611816</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>7.915496826171875e-05</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>243</v>
+        <v>1</v>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
-      </c>
+        <v>0.2856254577636719</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>15.93419075012207</v>
+      </c>
+      <c r="F26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>244</v>
+        <v>1</v>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
-      </c>
+        <v>10.0994086265564</v>
+      </c>
+      <c r="C27" t="n">
+        <v>1.116458892822266</v>
+      </c>
+      <c r="D27" t="n">
+        <v>2.457549095153809</v>
+      </c>
+      <c r="E27" t="n">
+        <v>14.26937103271484</v>
+      </c>
+      <c r="F27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>245</v>
+        <v>1</v>
       </c>
       <c r="B28" t="n">
-        <v>7.915496826171875e-05</v>
-      </c>
+        <v>7.971434593200684</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.4706487655639648</v>
+      </c>
+      <c r="E28" t="n">
+        <v>14.8603343963623</v>
+      </c>
+      <c r="F28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>246</v>
+        <v>1</v>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
-      </c>
+        <v>3.893404006958008</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>16.00204467773438</v>
+      </c>
+      <c r="F29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>247</v>
+        <v>1</v>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
-      </c>
+        <v>1.953210830688477</v>
+      </c>
+      <c r="C30" t="n">
+        <v>7.915496826171875e-05</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" t="n">
+        <v>17.88779258728027</v>
+      </c>
+      <c r="F30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>248</v>
+        <v>1</v>
       </c>
       <c r="B31" t="n">
-        <v>7.915496826171875e-05</v>
-      </c>
+        <v>0.590972900390625</v>
+      </c>
+      <c r="C31" t="n">
+        <v>1.439876556396484</v>
+      </c>
+      <c r="D31" t="n">
+        <v>2.066276550292969</v>
+      </c>
+      <c r="E31" t="n">
+        <v>52.71340131759644</v>
+      </c>
+      <c r="F31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>249</v>
+        <v>1</v>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
-      </c>
+        <v>0.9819316864013673</v>
+      </c>
+      <c r="C32" t="n">
+        <v>1.330991744995117</v>
+      </c>
+      <c r="D32" t="n">
+        <v>1.971752166748047</v>
+      </c>
+      <c r="E32" t="n">
+        <v>21.90941333770752</v>
+      </c>
+      <c r="F32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>250</v>
+        <v>1</v>
       </c>
       <c r="B33" t="n">
-        <v>7.915496826171875e-05</v>
-      </c>
+        <v>1.276628971099854</v>
+      </c>
+      <c r="C33" t="n">
+        <v>1.766056060791016</v>
+      </c>
+      <c r="D33" t="n">
+        <v>2.204591274261475</v>
+      </c>
+      <c r="E33" t="n">
+        <v>26.0525369644165</v>
+      </c>
+      <c r="F33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>251</v>
+        <v>1</v>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
-      </c>
+        <v>3.520197868347168</v>
+      </c>
+      <c r="C34" t="n">
+        <v>1.215795516967773</v>
+      </c>
+      <c r="D34" t="n">
+        <v>2.058149337768555</v>
+      </c>
+      <c r="E34" t="n">
+        <v>24.30802345275879</v>
+      </c>
+      <c r="F34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>252</v>
+        <v>1</v>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
-      </c>
+        <v>5.182654857635498</v>
+      </c>
+      <c r="C35" t="n">
+        <v>1.253589630126953</v>
+      </c>
+      <c r="D35" t="n">
+        <v>2.179657936096191</v>
+      </c>
+      <c r="E35" t="n">
+        <v>23.16157817840576</v>
+      </c>
+      <c r="F35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>253</v>
+        <v>1</v>
       </c>
       <c r="B36" t="n">
-        <v>7.82012939453125e-05</v>
-      </c>
+        <v>6.760687828063965</v>
+      </c>
+      <c r="C36" t="n">
+        <v>2.131922721862793</v>
+      </c>
+      <c r="D36" t="n">
+        <v>2.531874656677246</v>
+      </c>
+      <c r="E36" t="n">
+        <v>30.52783966064453</v>
+      </c>
+      <c r="F36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>254</v>
+        <v>1</v>
       </c>
       <c r="B37" t="n">
-        <v>1.310162544250488</v>
-      </c>
+        <v>5.316393375396729</v>
+      </c>
+      <c r="C37" t="n">
+        <v>1.83612060546875</v>
+      </c>
+      <c r="D37" t="n">
+        <v>2.260532379150391</v>
+      </c>
+      <c r="E37" t="n">
+        <v>28.81567001342773</v>
+      </c>
+      <c r="F37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>255</v>
+        <v>1</v>
       </c>
       <c r="B38" t="n">
-        <v>2.654724836349487</v>
-      </c>
+        <v>3.476405143737793</v>
+      </c>
+      <c r="C38" t="n">
+        <v>2.020197868347168</v>
+      </c>
+      <c r="D38" t="n">
+        <v>2.408788204193115</v>
+      </c>
+      <c r="E38" t="n">
+        <v>24.88794326782227</v>
+      </c>
+      <c r="F38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>256</v>
+        <v>1</v>
       </c>
       <c r="B39" t="n">
-        <v>4.663403272628784</v>
-      </c>
+        <v>4.205458164215088</v>
+      </c>
+      <c r="C39" t="n">
+        <v>1.733784675598145</v>
+      </c>
+      <c r="D39" t="n">
+        <v>2.280968189239502</v>
+      </c>
+      <c r="E39" t="n">
+        <v>26.02570533752441</v>
+      </c>
+      <c r="F39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>257</v>
+        <v>1</v>
       </c>
       <c r="B40" t="n">
-        <v>1.896637916564941</v>
-      </c>
+        <v>3.348190784454346</v>
+      </c>
+      <c r="C40" t="n">
+        <v>2.004891395568848</v>
+      </c>
+      <c r="D40" t="n">
+        <v>2.409814357757568</v>
+      </c>
+      <c r="E40" t="n">
+        <v>25.10177135467529</v>
+      </c>
+      <c r="F40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>258</v>
+        <v>1</v>
       </c>
       <c r="B41" t="n">
-        <v>3.930406928062439</v>
-      </c>
+        <v>4.68951940536499</v>
+      </c>
+      <c r="C41" t="n">
+        <v>2.277022838592529</v>
+      </c>
+      <c r="D41" t="n">
+        <v>2.534636497497559</v>
+      </c>
+      <c r="E41" t="n">
+        <v>32.10981369018555</v>
+      </c>
+      <c r="F41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>259</v>
+        <v>1</v>
       </c>
       <c r="B42" t="n">
-        <v>2.89537525177002</v>
-      </c>
+        <v>4.263451099395752</v>
+      </c>
+      <c r="C42" t="n">
+        <v>2.402634143829346</v>
+      </c>
+      <c r="D42" t="n">
+        <v>2.594365119934082</v>
+      </c>
+      <c r="E42" t="n">
+        <v>32.61951684951782</v>
+      </c>
+      <c r="F42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>260</v>
+        <v>1</v>
       </c>
       <c r="B43" t="n">
-        <v>4.171372532844543</v>
-      </c>
+        <v>3.143045902252197</v>
+      </c>
+      <c r="C43" t="n">
+        <v>2.111012935638428</v>
+      </c>
+      <c r="D43" t="n">
+        <v>2.34132719039917</v>
+      </c>
+      <c r="E43" t="n">
+        <v>29.38692092895508</v>
+      </c>
+      <c r="F43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>261</v>
+        <v>1</v>
       </c>
       <c r="B44" t="n">
-        <v>3.226603984832764</v>
-      </c>
+        <v>2.722105979919434</v>
+      </c>
+      <c r="C44" t="n">
+        <v>2.39158821105957</v>
+      </c>
+      <c r="D44" t="n">
+        <v>2.651726722717285</v>
+      </c>
+      <c r="E44" t="n">
+        <v>27.83176898956299</v>
+      </c>
+      <c r="F44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>262</v>
+        <v>1</v>
       </c>
       <c r="B45" t="n">
-        <v>1.497001171112061</v>
-      </c>
+        <v>4.519486427307129</v>
+      </c>
+      <c r="C45" t="n">
+        <v>2.561936378479004</v>
+      </c>
+      <c r="D45" t="n">
+        <v>2.691098690032959</v>
+      </c>
+      <c r="E45" t="n">
+        <v>58.91710042953491</v>
+      </c>
+      <c r="F45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>263</v>
+        <v>1</v>
       </c>
       <c r="B46" t="n">
-        <v>0.9854030609130859</v>
-      </c>
+        <v>4.03660774230957</v>
+      </c>
+      <c r="C46" t="n">
+        <v>2.426936149597168</v>
+      </c>
+      <c r="D46" t="n">
+        <v>2.637208461761475</v>
+      </c>
+      <c r="E46" t="n">
+        <v>34.23542499542236</v>
+      </c>
+      <c r="F46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>264</v>
+        <v>1</v>
       </c>
       <c r="B47" t="n">
-        <v>7.915496826171875e-05</v>
-      </c>
+        <v>2.448711395263672</v>
+      </c>
+      <c r="C47" t="n">
+        <v>2.315842151641846</v>
+      </c>
+      <c r="D47" t="n">
+        <v>2.433958053588867</v>
+      </c>
+      <c r="E47" t="n">
+        <v>30.31874656677246</v>
+      </c>
+      <c r="F47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>265</v>
+        <v>1</v>
       </c>
       <c r="B48" t="n">
-        <v>0</v>
-      </c>
+        <v>2.320892810821533</v>
+      </c>
+      <c r="C48" t="n">
+        <v>2.593970775604248</v>
+      </c>
+      <c r="D48" t="n">
+        <v>2.783334255218506</v>
+      </c>
+      <c r="E48" t="n">
+        <v>31.19218826293945</v>
+      </c>
+      <c r="F48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>266</v>
+        <v>1</v>
       </c>
       <c r="B49" t="n">
-        <v>0</v>
-      </c>
+        <v>0.9799575805664062</v>
+      </c>
+      <c r="C49" t="n">
+        <v>2.508756637573242</v>
+      </c>
+      <c r="D49" t="n">
+        <v>2.632868766784668</v>
+      </c>
+      <c r="E49" t="n">
+        <v>28.55056285858154</v>
+      </c>
+      <c r="F49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>267</v>
+        <v>1</v>
       </c>
       <c r="B50" t="n">
-        <v>3.492897510528564</v>
-      </c>
+        <v>3.364366292953491</v>
+      </c>
+      <c r="C50" t="n">
+        <v>2.542132377624512</v>
+      </c>
+      <c r="D50" t="n">
+        <v>2.632000923156738</v>
+      </c>
+      <c r="E50" t="n">
+        <v>35.08992910385132</v>
+      </c>
+      <c r="F50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>268</v>
+        <v>1</v>
       </c>
       <c r="B51" t="n">
-        <v>2.837776660919189</v>
-      </c>
+        <v>1.170902252197266</v>
+      </c>
+      <c r="C51" t="n">
+        <v>2.445083618164062</v>
+      </c>
+      <c r="D51" t="n">
+        <v>2.576217651367188</v>
+      </c>
+      <c r="E51" t="n">
+        <v>28.80778312683105</v>
+      </c>
+      <c r="F51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>269</v>
+        <v>1</v>
       </c>
       <c r="B52" t="n">
-        <v>3.089788436889648</v>
-      </c>
+        <v>3.543868064880371</v>
+      </c>
+      <c r="C52" t="n">
+        <v>2.563751220703125</v>
+      </c>
+      <c r="D52" t="n">
+        <v>2.666323661804199</v>
+      </c>
+      <c r="E52" t="n">
+        <v>35.29270887374878</v>
+      </c>
+      <c r="F52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>270</v>
+        <v>1</v>
       </c>
       <c r="B53" t="n">
-        <v>1.186917304992676</v>
-      </c>
+        <v>2.492897510528564</v>
+      </c>
+      <c r="C53" t="n">
+        <v>2.706089973449707</v>
+      </c>
+      <c r="D53" t="n">
+        <v>2.804085731506348</v>
+      </c>
+      <c r="E53" t="n">
+        <v>32.09245681762695</v>
+      </c>
+      <c r="F53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>271</v>
+        <v>1</v>
       </c>
       <c r="B54" t="n">
-        <v>1.90010929107666</v>
-      </c>
+        <v>3.523353338241577</v>
+      </c>
+      <c r="C54" t="n">
+        <v>2.482798099517822</v>
+      </c>
+      <c r="D54" t="n">
+        <v>2.536530494689941</v>
+      </c>
+      <c r="E54" t="n">
+        <v>35.03627777099609</v>
+      </c>
+      <c r="F54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>272</v>
+        <v>1</v>
       </c>
       <c r="B55" t="n">
-        <v>2.418256282806396</v>
-      </c>
+        <v>2.466070652008057</v>
+      </c>
+      <c r="C55" t="n">
+        <v>2.417072772979736</v>
+      </c>
+      <c r="D55" t="n">
+        <v>2.528403282165527</v>
+      </c>
+      <c r="E55" t="n">
+        <v>31.89519882202149</v>
+      </c>
+      <c r="F55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>273</v>
+        <v>1</v>
       </c>
       <c r="B56" t="n">
-        <v>1.583556175231934</v>
-      </c>
+        <v>3.14975380897522</v>
+      </c>
+      <c r="C56" t="n">
+        <v>2.712086200714111</v>
+      </c>
+      <c r="D56" t="n">
+        <v>2.826967239379883</v>
+      </c>
+      <c r="E56" t="n">
+        <v>33.42352867126465</v>
+      </c>
+      <c r="F56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>274</v>
+        <v>1</v>
       </c>
       <c r="B57" t="n">
-        <v>1.31229305267334</v>
-      </c>
+        <v>1.619062423706055</v>
+      </c>
+      <c r="C57" t="n">
+        <v>2.457628726959229</v>
+      </c>
+      <c r="D57" t="n">
+        <v>2.530928134918213</v>
+      </c>
+      <c r="E57" t="n">
+        <v>30.37003040313721</v>
+      </c>
+      <c r="F57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>275</v>
+        <v>1</v>
       </c>
       <c r="B58" t="n">
-        <v>1.705695152282715</v>
-      </c>
+        <v>2.823101282119751</v>
+      </c>
+      <c r="C58" t="n">
+        <v>2.514990329742432</v>
+      </c>
+      <c r="D58" t="n">
+        <v>2.658669948577881</v>
+      </c>
+      <c r="E58" t="n">
+        <v>50.76768815517426</v>
+      </c>
+      <c r="F58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>276</v>
+        <v>1</v>
       </c>
       <c r="B59" t="n">
-        <v>1.815211296081543</v>
-      </c>
+        <v>1.479800939559937</v>
+      </c>
+      <c r="C59" t="n">
+        <v>2.663246154785156</v>
+      </c>
+      <c r="D59" t="n">
+        <v>2.785306930541992</v>
+      </c>
+      <c r="E59" t="n">
+        <v>29.1865062713623</v>
+      </c>
+      <c r="F59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>277</v>
+        <v>1</v>
       </c>
       <c r="B60" t="n">
-        <v>2.10162353515625</v>
-      </c>
+        <v>3.674055337905884</v>
+      </c>
+      <c r="C60" t="n">
+        <v>2.600361824035645</v>
+      </c>
+      <c r="D60" t="n">
+        <v>2.642021656036377</v>
+      </c>
+      <c r="E60" t="n">
+        <v>35.91050863265991</v>
+      </c>
+      <c r="F60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>278</v>
+        <v>1</v>
       </c>
       <c r="B61" t="n">
-        <v>0.2596654891967773</v>
-      </c>
+        <v>1.252562999725342</v>
+      </c>
+      <c r="C61" t="n">
+        <v>2.678474426269531</v>
+      </c>
+      <c r="D61" t="n">
+        <v>2.774734258651733</v>
+      </c>
+      <c r="E61" t="n">
+        <v>30.36766529083252</v>
+      </c>
+      <c r="F61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>279</v>
+        <v>1</v>
       </c>
       <c r="B62" t="n">
-        <v>2.045446395874023</v>
-      </c>
+        <v>1.771342754364014</v>
+      </c>
+      <c r="C62" t="n">
+        <v>2.371468067169189</v>
+      </c>
+      <c r="D62" t="n">
+        <v>2.527219772338867</v>
+      </c>
+      <c r="E62" t="n">
+        <v>32.43094444274902</v>
+      </c>
+      <c r="F62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>280</v>
+        <v>1</v>
       </c>
       <c r="B63" t="n">
-        <v>1.216899871826172</v>
-      </c>
+        <v>1.192992925643921</v>
+      </c>
+      <c r="C63" t="n">
+        <v>2.657722949981689</v>
+      </c>
+      <c r="D63" t="n">
+        <v>2.770473480224609</v>
+      </c>
+      <c r="E63" t="n">
+        <v>29.99682903289795</v>
+      </c>
+      <c r="F63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>281</v>
+        <v>1</v>
       </c>
       <c r="B64" t="n">
-        <v>7.915496826171875e-05</v>
-      </c>
+        <v>0.1787114143371582</v>
+      </c>
+      <c r="C64" t="n">
+        <v>2.603122711181641</v>
+      </c>
+      <c r="D64" t="n">
+        <v>2.612985610961914</v>
+      </c>
+      <c r="E64" t="n">
+        <v>33.15210342407227</v>
+      </c>
+      <c r="F64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>282</v>
+        <v>1</v>
       </c>
       <c r="B65" t="n">
-        <v>7.915496826171875e-05</v>
-      </c>
+        <v>1.954787969589233</v>
+      </c>
+      <c r="C65" t="n">
+        <v>2.447844505310059</v>
+      </c>
+      <c r="D65" t="n">
+        <v>2.582924365997314</v>
+      </c>
+      <c r="E65" t="n">
+        <v>35.05600214004517</v>
+      </c>
+      <c r="F65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>283</v>
+        <v>1</v>
       </c>
       <c r="B66" t="n">
-        <v>0</v>
-      </c>
+        <v>0.422518253326416</v>
+      </c>
+      <c r="C66" t="n">
+        <v>2.728182315826416</v>
+      </c>
+      <c r="D66" t="n">
+        <v>2.756428956985474</v>
+      </c>
+      <c r="E66" t="n">
+        <v>31.83444738388062</v>
+      </c>
+      <c r="F66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>284</v>
+        <v>1</v>
       </c>
       <c r="B67" t="n">
-        <v>7.915496826171875e-05</v>
-      </c>
+        <v>1.794617772102356</v>
+      </c>
+      <c r="C67" t="n">
+        <v>2.834304809570312</v>
+      </c>
+      <c r="D67" t="n">
+        <v>2.792881727218628</v>
+      </c>
+      <c r="E67" t="n">
+        <v>39.06657457351685</v>
+      </c>
+      <c r="F67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>285</v>
+        <v>1</v>
       </c>
       <c r="B68" t="n">
-        <v>0</v>
-      </c>
+        <v>2.029349803924561</v>
+      </c>
+      <c r="C68" t="n">
+        <v>2.799430370330811</v>
+      </c>
+      <c r="D68" t="n">
+        <v>2.684628248214722</v>
+      </c>
+      <c r="E68" t="n">
+        <v>38.34304809570312</v>
+      </c>
+      <c r="F68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>286</v>
+        <v>1</v>
       </c>
       <c r="B69" t="n">
-        <v>0</v>
-      </c>
+        <v>1.761479377746582</v>
+      </c>
+      <c r="C69" t="n">
+        <v>2.513569831848145</v>
+      </c>
+      <c r="D69" t="n">
+        <v>2.54086971282959</v>
+      </c>
+      <c r="E69" t="n">
+        <v>36.62377834320068</v>
+      </c>
+      <c r="F69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>287</v>
+        <v>1</v>
       </c>
       <c r="B70" t="n">
-        <v>0</v>
-      </c>
+        <v>0.371626615524292</v>
+      </c>
+      <c r="C70" t="n">
+        <v>2.759269714355469</v>
+      </c>
+      <c r="D70" t="n">
+        <v>2.748380899429321</v>
+      </c>
+      <c r="E70" t="n">
+        <v>31.57249689102173</v>
+      </c>
+      <c r="F70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>288</v>
+        <v>1</v>
       </c>
       <c r="B71" t="n">
-        <v>0</v>
-      </c>
+        <v>1.957944631576538</v>
+      </c>
+      <c r="C71" t="n">
+        <v>2.609593391418457</v>
+      </c>
+      <c r="D71" t="n">
+        <v>2.415337562561035</v>
+      </c>
+      <c r="E71" t="n">
+        <v>59.906085729599</v>
+      </c>
+      <c r="F71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>289</v>
+        <v>1</v>
       </c>
       <c r="B72" t="n">
-        <v>0</v>
-      </c>
+        <v>9.907679557800293</v>
+      </c>
+      <c r="C72" t="n">
+        <v>2.456445217132568</v>
+      </c>
+      <c r="D72" t="n">
+        <v>2.071325778961182</v>
+      </c>
+      <c r="E72" t="n">
+        <v>23.6081600189209</v>
+      </c>
+      <c r="F72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>290</v>
+        <v>1</v>
       </c>
       <c r="B73" t="n">
-        <v>7.915496826171875e-05</v>
-      </c>
+        <v>2.840456962585449</v>
+      </c>
+      <c r="C73" t="n">
+        <v>0.4215717315673828</v>
+      </c>
+      <c r="D73" t="n">
+        <v>1.097916603088379</v>
+      </c>
+      <c r="E73" t="n">
+        <v>26.01230144500732</v>
+      </c>
+      <c r="F73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>291</v>
+        <v>1</v>
       </c>
       <c r="B74" t="n">
-        <v>0</v>
-      </c>
+        <v>3.920621871948242</v>
+      </c>
+      <c r="C74" t="n">
+        <v>0.362553596496582</v>
+      </c>
+      <c r="D74" t="n">
+        <v>1.194808006286621</v>
+      </c>
+      <c r="E74" t="n">
+        <v>22.2502613067627</v>
+      </c>
+      <c r="F74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>292</v>
+        <v>1</v>
       </c>
       <c r="B75" t="n">
+        <v>2.608880996704102</v>
+      </c>
+      <c r="C75" t="n">
         <v>7.915496826171875e-05</v>
       </c>
+      <c r="D75" t="n">
+        <v>0.7152442932128906</v>
+      </c>
+      <c r="E75" t="n">
+        <v>14.46582794189453</v>
+      </c>
+      <c r="F75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>293</v>
+        <v>1</v>
       </c>
       <c r="B76" t="n">
-        <v>7.915496826171875e-05</v>
-      </c>
+        <v>1.215085983276367</v>
+      </c>
+      <c r="C76" t="n">
+        <v>2.135078430175781</v>
+      </c>
+      <c r="D76" t="n">
+        <v>2.457629203796387</v>
+      </c>
+      <c r="E76" t="n">
+        <v>22.14058876037598</v>
+      </c>
+      <c r="F76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>294</v>
+        <v>1</v>
       </c>
       <c r="B77" t="n">
-        <v>7.915496826171875e-05</v>
-      </c>
+        <v>0.2130341529846191</v>
+      </c>
+      <c r="C77" t="n">
+        <v>0.8452739715576172</v>
+      </c>
+      <c r="D77" t="n">
+        <v>1.671847343444824</v>
+      </c>
+      <c r="E77" t="n">
+        <v>19.8808479309082</v>
+      </c>
+      <c r="F77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>295</v>
+        <v>1</v>
       </c>
       <c r="B78" t="n">
-        <v>0</v>
-      </c>
+        <v>20.58070421218872</v>
+      </c>
+      <c r="C78" t="n">
+        <v>2.120244979858398</v>
+      </c>
+      <c r="D78" t="n">
+        <v>1.988006114959717</v>
+      </c>
+      <c r="E78" t="n">
+        <v>6.133031845092773</v>
+      </c>
+      <c r="F78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>296</v>
+        <v>1</v>
       </c>
       <c r="B79" t="n">
-        <v>0</v>
-      </c>
+        <v>33.33160638809204</v>
+      </c>
+      <c r="C79" t="n">
+        <v>2.73867654800415</v>
+      </c>
+      <c r="D79" t="n">
+        <v>1.934747219085693</v>
+      </c>
+      <c r="E79" t="n">
+        <v>6.967811584472656</v>
+      </c>
+      <c r="F79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>297</v>
+        <v>1</v>
       </c>
       <c r="B80" t="n">
-        <v>7.915496826171875e-05</v>
-      </c>
+        <v>36.10697388648987</v>
+      </c>
+      <c r="C80" t="n">
+        <v>2.623874187469482</v>
+      </c>
+      <c r="D80" t="n">
+        <v>1.705616474151611</v>
+      </c>
+      <c r="E80" t="n">
+        <v>9.664669036865234</v>
+      </c>
+      <c r="F80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>298</v>
+        <v>1</v>
       </c>
       <c r="B81" t="n">
-        <v>0</v>
-      </c>
+        <v>17.35205054283142</v>
+      </c>
+      <c r="C81" t="n">
+        <v>2.510018825531006</v>
+      </c>
+      <c r="D81" t="n">
+        <v>2.219424247741699</v>
+      </c>
+      <c r="E81" t="n">
+        <v>11.98674201965332</v>
+      </c>
+      <c r="F81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>299</v>
+        <v>1</v>
       </c>
       <c r="B82" t="n">
-        <v>7.915496826171875e-05</v>
-      </c>
+        <v>1.677050590515137</v>
+      </c>
+      <c r="C82" t="n">
+        <v>0.9715166091918945</v>
+      </c>
+      <c r="D82" t="n">
+        <v>1.775286674499512</v>
+      </c>
+      <c r="E82" t="n">
+        <v>2.760772705078125</v>
+      </c>
+      <c r="F82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>300</v>
+        <v>1</v>
       </c>
       <c r="B83" t="n">
-        <v>0</v>
-      </c>
+        <v>0.9831142425537108</v>
+      </c>
+      <c r="C83" t="n">
+        <v>1.528640747070312</v>
+      </c>
+      <c r="D83" t="n">
+        <v>2.290357112884521</v>
+      </c>
+      <c r="E83" t="n">
+        <v>7.95170783996582</v>
+      </c>
+      <c r="F83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>301</v>
+        <v>1</v>
       </c>
       <c r="B84" t="n">
-        <v>0</v>
-      </c>
+        <v>2.783255577087402</v>
+      </c>
+      <c r="C84" t="n">
+        <v>2.808582782745361</v>
+      </c>
+      <c r="D84" t="n">
+        <v>2.926777601242065</v>
+      </c>
+      <c r="E84" t="n">
+        <v>53.5655402764678</v>
+      </c>
+      <c r="F84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>302</v>
+        <v>1</v>
       </c>
       <c r="B85" t="n">
-        <v>0</v>
-      </c>
+        <v>3.015227317810059</v>
+      </c>
+      <c r="C85" t="n">
+        <v>2.515384197235107</v>
+      </c>
+      <c r="D85" t="n">
+        <v>2.468753814697266</v>
+      </c>
+      <c r="E85" t="n">
+        <v>28.21365118026733</v>
+      </c>
+      <c r="F85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>303</v>
+        <v>1</v>
       </c>
       <c r="B86" t="n">
-        <v>0</v>
-      </c>
+        <v>3.052704334259033</v>
+      </c>
+      <c r="C86" t="n">
+        <v>1.603991508483887</v>
+      </c>
+      <c r="D86" t="n">
+        <v>2.009546279907227</v>
+      </c>
+      <c r="E86" t="n">
+        <v>22.70236968994141</v>
+      </c>
+      <c r="F86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>304</v>
+        <v>1</v>
       </c>
       <c r="B87" t="n">
-        <v>0</v>
-      </c>
+        <v>8.552148342132568</v>
+      </c>
+      <c r="C87" t="n">
+        <v>2.357817649841309</v>
+      </c>
+      <c r="D87" t="n">
+        <v>2.733547210693359</v>
+      </c>
+      <c r="E87" t="n">
+        <v>28.20418357849121</v>
+      </c>
+      <c r="F87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>305</v>
+        <v>1</v>
       </c>
       <c r="B88" t="n">
-        <v>0</v>
-      </c>
+        <v>7.882273197174072</v>
+      </c>
+      <c r="C88" t="n">
+        <v>2.019330024719238</v>
+      </c>
+      <c r="D88" t="n">
+        <v>2.362315654754639</v>
+      </c>
+      <c r="E88" t="n">
+        <v>27.82782077789307</v>
+      </c>
+      <c r="F88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>306</v>
+        <v>1</v>
       </c>
       <c r="B89" t="n">
-        <v>0</v>
-      </c>
+        <v>5.987844467163086</v>
+      </c>
+      <c r="C89" t="n">
+        <v>0.1697969436645508</v>
+      </c>
+      <c r="D89" t="n">
+        <v>1.23607349395752</v>
+      </c>
+      <c r="E89" t="n">
+        <v>13.78017425537109</v>
+      </c>
+      <c r="F89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>307</v>
+        <v>1</v>
       </c>
       <c r="B90" t="n">
-        <v>0</v>
-      </c>
+        <v>9.713582992553711</v>
+      </c>
+      <c r="C90" t="n">
+        <v>1.33406925201416</v>
+      </c>
+      <c r="D90" t="n">
+        <v>2.294222831726074</v>
+      </c>
+      <c r="E90" t="n">
+        <v>31.07541561126709</v>
+      </c>
+      <c r="F90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>308</v>
+        <v>1</v>
       </c>
       <c r="B91" t="n">
-        <v>0</v>
-      </c>
+        <v>13.4760057926178</v>
+      </c>
+      <c r="C91" t="n">
+        <v>2.612985610961914</v>
+      </c>
+      <c r="D91" t="n">
+        <v>2.365708351135254</v>
+      </c>
+      <c r="E91" t="n">
+        <v>30.4560375213623</v>
+      </c>
+      <c r="F91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>309</v>
+        <v>1</v>
       </c>
       <c r="B92" t="n">
-        <v>0</v>
-      </c>
+        <v>8.487056493759155</v>
+      </c>
+      <c r="C92" t="n">
+        <v>2.686600685119629</v>
+      </c>
+      <c r="D92" t="n">
+        <v>2.469779491424561</v>
+      </c>
+      <c r="E92" t="n">
+        <v>35.76769351959229</v>
+      </c>
+      <c r="F92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>310</v>
+        <v>1</v>
       </c>
       <c r="B93" t="n">
-        <v>7.915496826171875e-05</v>
-      </c>
+        <v>9.778281450271606</v>
+      </c>
+      <c r="C93" t="n">
+        <v>2.873045444488525</v>
+      </c>
+      <c r="D93" t="n">
+        <v>2.640995979309082</v>
+      </c>
+      <c r="E93" t="n">
+        <v>37.81992673873901</v>
+      </c>
+      <c r="F93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>311</v>
+        <v>1</v>
       </c>
       <c r="B94" t="n">
-        <v>0</v>
-      </c>
+        <v>7.838879823684691</v>
+      </c>
+      <c r="C94" t="n">
+        <v>2.54236888885498</v>
+      </c>
+      <c r="D94" t="n">
+        <v>2.313869476318359</v>
+      </c>
+      <c r="E94" t="n">
+        <v>35.56018352508545</v>
+      </c>
+      <c r="F94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>312</v>
+        <v>1</v>
       </c>
       <c r="B95" t="n">
-        <v>7.915496826171875e-05</v>
-      </c>
+        <v>12.04354643821716</v>
+      </c>
+      <c r="C95" t="n">
+        <v>2.649122714996338</v>
+      </c>
+      <c r="D95" t="n">
+        <v>2.174766063690186</v>
+      </c>
+      <c r="E95" t="n">
+        <v>35.95311164855957</v>
+      </c>
+      <c r="F95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>313</v>
+        <v>1</v>
       </c>
       <c r="B96" t="n">
-        <v>0</v>
-      </c>
+        <v>18.59435677528381</v>
+      </c>
+      <c r="C96" t="n">
+        <v>2.716189861297607</v>
+      </c>
+      <c r="D96" t="n">
+        <v>2.130344390869141</v>
+      </c>
+      <c r="E96" t="n">
+        <v>34.05710697174072</v>
+      </c>
+      <c r="F96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>314</v>
+        <v>1</v>
       </c>
       <c r="B97" t="n">
-        <v>7.915496826171875e-05</v>
-      </c>
+        <v>17.32325196266174</v>
+      </c>
+      <c r="C97" t="n">
+        <v>2.758323192596436</v>
+      </c>
+      <c r="D97" t="n">
+        <v>2.125057697296143</v>
+      </c>
+      <c r="E97" t="n">
+        <v>38.51741552352905</v>
+      </c>
+      <c r="F97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>315</v>
+        <v>1</v>
       </c>
       <c r="B98" t="n">
-        <v>0</v>
-      </c>
+        <v>18.03652286529541</v>
+      </c>
+      <c r="C98" t="n">
+        <v>2.673660755157471</v>
+      </c>
+      <c r="D98" t="n">
+        <v>2.02879810333252</v>
+      </c>
+      <c r="E98" t="n">
+        <v>34.3632435798645</v>
+      </c>
+      <c r="F98" t="inlineStr"/>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>1</v>
+      </c>
+      <c r="B99" t="n">
+        <v>13.86617541313171</v>
+      </c>
+      <c r="C99" t="n">
+        <v>2.684707641601562</v>
+      </c>
+      <c r="D99" t="n">
+        <v>2.182183265686035</v>
+      </c>
+      <c r="E99" t="n">
+        <v>57.23043262958527</v>
+      </c>
+      <c r="F99" t="inlineStr"/>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>1</v>
+      </c>
+      <c r="B100" t="n">
+        <v>12.94657707214355</v>
+      </c>
+      <c r="C100" t="n">
+        <v>2.667428493499756</v>
+      </c>
+      <c r="D100" t="n">
+        <v>2.159459114074707</v>
+      </c>
+      <c r="E100" t="n">
+        <v>32.4333119392395</v>
+      </c>
+      <c r="F100" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>1</v>
+      </c>
+      <c r="B101" t="n">
+        <v>1.653382778167725</v>
+      </c>
+      <c r="C101" t="n">
+        <v>2.186128616333008</v>
+      </c>
+      <c r="D101" t="n">
+        <v>2.075271606445312</v>
+      </c>
+      <c r="E101" t="n">
+        <v>29.83350276947021</v>
+      </c>
+      <c r="F101" t="inlineStr"/>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>1</v>
+      </c>
+      <c r="B102" t="n">
+        <v>0.1996231079101562</v>
+      </c>
+      <c r="C102" t="n">
+        <v>0</v>
+      </c>
+      <c r="D102" t="n">
+        <v>0</v>
+      </c>
+      <c r="E102" t="n">
+        <v>5.791387557983398</v>
+      </c>
+      <c r="F102" t="inlineStr"/>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>1</v>
+      </c>
+      <c r="B103" t="n">
+        <v>0.0003957748413085938</v>
+      </c>
+      <c r="C103" t="n">
+        <v>0</v>
+      </c>
+      <c r="D103" t="n">
+        <v>7.915496826171875e-05</v>
+      </c>
+      <c r="E103" t="n">
+        <v>0</v>
+      </c>
+      <c r="F103" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>1</v>
+      </c>
+      <c r="B104" t="n">
+        <v>0.0003957748413085938</v>
+      </c>
+      <c r="C104" t="n">
+        <v>7.915496826171875e-05</v>
+      </c>
+      <c r="D104" t="n">
+        <v>0</v>
+      </c>
+      <c r="E104" t="n">
+        <v>0</v>
+      </c>
+      <c r="F104" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>1</v>
+      </c>
+      <c r="B105" t="n">
+        <v>0.0003957748413085938</v>
+      </c>
+      <c r="C105" t="n">
+        <v>7.915496826171875e-05</v>
+      </c>
+      <c r="D105" t="n">
+        <v>0</v>
+      </c>
+      <c r="E105" t="n">
+        <v>0.0007915496826171875</v>
+      </c>
+      <c r="F105" t="inlineStr"/>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>1</v>
+      </c>
+      <c r="B106" t="n">
+        <v>0</v>
+      </c>
+      <c r="C106" t="n">
+        <v>7.915496826171875e-05</v>
+      </c>
+      <c r="D106" t="n">
+        <v>7.915496826171875e-05</v>
+      </c>
+      <c r="E106" t="n">
+        <v>0</v>
+      </c>
+      <c r="F106" t="inlineStr"/>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>1</v>
+      </c>
+      <c r="B107" t="n">
+        <v>0.0003957748413085938</v>
+      </c>
+      <c r="C107" t="n">
+        <v>0</v>
+      </c>
+      <c r="D107" t="n">
+        <v>0</v>
+      </c>
+      <c r="E107" t="n">
+        <v>0</v>
+      </c>
+      <c r="F107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>1</v>
+      </c>
+      <c r="B108" t="n">
+        <v>0</v>
+      </c>
+      <c r="C108" t="n">
+        <v>0</v>
+      </c>
+      <c r="D108" t="n">
+        <v>0</v>
+      </c>
+      <c r="E108" t="n">
+        <v>0</v>
+      </c>
+      <c r="F108" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>1</v>
+      </c>
+      <c r="B109" t="n">
+        <v>0</v>
+      </c>
+      <c r="C109" t="n">
+        <v>7.915496826171875e-05</v>
+      </c>
+      <c r="D109" t="n">
+        <v>0</v>
+      </c>
+      <c r="E109" t="n">
+        <v>0</v>
+      </c>
+      <c r="F109" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>1</v>
+      </c>
+      <c r="B110" t="n">
+        <v>0.0003957748413085938</v>
+      </c>
+      <c r="C110" t="n">
+        <v>0</v>
+      </c>
+      <c r="D110" t="n">
+        <v>0</v>
+      </c>
+      <c r="E110" t="n">
+        <v>0.0007915496826171875</v>
+      </c>
+      <c r="F110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>1</v>
+      </c>
+      <c r="B111" t="n">
+        <v>0</v>
+      </c>
+      <c r="C111" t="n">
+        <v>7.915496826171875e-05</v>
+      </c>
+      <c r="D111" t="n">
+        <v>0</v>
+      </c>
+      <c r="E111" t="n">
+        <v>0.0007915496826171875</v>
+      </c>
+      <c r="F111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>1</v>
+      </c>
+      <c r="B112" t="n">
+        <v>0</v>
+      </c>
+      <c r="C112" t="n">
+        <v>0</v>
+      </c>
+      <c r="D112" t="n">
+        <v>0</v>
+      </c>
+      <c r="E112" t="n">
+        <v>0</v>
+      </c>
+      <c r="F112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>1</v>
+      </c>
+      <c r="B113" t="n">
+        <v>0</v>
+      </c>
+      <c r="C113" t="n">
+        <v>0</v>
+      </c>
+      <c r="D113" t="n">
+        <v>7.915496826171875e-05</v>
+      </c>
+      <c r="E113" t="n">
+        <v>0</v>
+      </c>
+      <c r="F113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>1</v>
+      </c>
+      <c r="B114" t="n">
+        <v>0</v>
+      </c>
+      <c r="C114" t="n">
+        <v>0</v>
+      </c>
+      <c r="D114" t="n">
+        <v>0</v>
+      </c>
+      <c r="E114" t="n">
+        <v>0</v>
+      </c>
+      <c r="F114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>1</v>
+      </c>
+      <c r="B115" t="n">
+        <v>0.0003957748413085938</v>
+      </c>
+      <c r="C115" t="n">
+        <v>0</v>
+      </c>
+      <c r="D115" t="n">
+        <v>0</v>
+      </c>
+      <c r="E115" t="n">
+        <v>0.0007915496826171875</v>
+      </c>
+      <c r="F115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>1</v>
+      </c>
+      <c r="B116" t="n">
+        <v>0</v>
+      </c>
+      <c r="C116" t="n">
+        <v>7.915496826171875e-05</v>
+      </c>
+      <c r="D116" t="n">
+        <v>0</v>
+      </c>
+      <c r="E116" t="n">
+        <v>0.0007915496826171875</v>
+      </c>
+      <c r="F116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>1</v>
+      </c>
+      <c r="B117" t="n">
+        <v>0</v>
+      </c>
+      <c r="C117" t="n">
+        <v>0</v>
+      </c>
+      <c r="D117" t="n">
+        <v>7.915496826171875e-05</v>
+      </c>
+      <c r="E117" t="n">
+        <v>0</v>
+      </c>
+      <c r="F117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>1</v>
+      </c>
+      <c r="B118" t="n">
+        <v>0</v>
+      </c>
+      <c r="C118" t="n">
+        <v>0</v>
+      </c>
+      <c r="D118" t="n">
+        <v>0</v>
+      </c>
+      <c r="E118" t="n">
+        <v>0.0007915496826171875</v>
+      </c>
+      <c r="F118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>1</v>
+      </c>
+      <c r="B119" t="n">
+        <v>0.0003957748413085938</v>
+      </c>
+      <c r="C119" t="n">
+        <v>0</v>
+      </c>
+      <c r="D119" t="n">
+        <v>0</v>
+      </c>
+      <c r="E119" t="n">
+        <v>0</v>
+      </c>
+      <c r="F119" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/LabJackPrototyp/unnamed.xlsx
+++ b/LabJackPrototyp/unnamed.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C128"/>
+  <dimension ref="A1:C190"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -442,12 +442,12 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>XAxis Channel 0</t>
+          <t>Sample</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Channel 2</t>
+          <t>Channel 2/[V]</t>
         </is>
       </c>
     </row>
@@ -456,1396 +456,1790 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>6.842250108718872</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.6746058151475154</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>6.842329025268555</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.674684731697198</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>6.842644691467285</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.6744479881017469</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="C4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>6.842250347137451</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.6745268985978328</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="C5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>1</v>
       </c>
       <c r="B6" t="n">
-        <v>6.842329025268555</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.6746058090939187</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="C6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>1</v>
       </c>
       <c r="B7" t="n">
-        <v>6.84248685836792</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.6744479881017469</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="C7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>1</v>
       </c>
       <c r="B8" t="n">
-        <v>6.842407941818237</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.6745268985978328</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="C8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>1</v>
       </c>
       <c r="B9" t="n">
-        <v>6.842723608016968</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.6746058151475154</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="C9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>1</v>
       </c>
       <c r="B10" t="n">
-        <v>6.842250108718872</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.6743690715520643</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="C10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>1</v>
       </c>
       <c r="B11" t="n">
-        <v>6.842329263687134</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.6744479881017469</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="C11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>1</v>
       </c>
       <c r="B12" t="n">
-        <v>6.67914217710495</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.673501108714845</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="C12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>1</v>
       </c>
       <c r="B13" t="n">
-        <v>6.861504316329956</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.6746847377507947</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="C13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>1</v>
       </c>
       <c r="B14" t="n">
-        <v>6.870105743408203</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0.6746847377507947</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="C14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>1</v>
       </c>
       <c r="B15" t="n">
-        <v>6.011795938014984</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0.6713704750291072</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="C15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>1</v>
       </c>
       <c r="B16" t="n">
-        <v>3.393151521682739</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0.6431994661106728</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="C16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>1</v>
       </c>
       <c r="B17" t="n">
-        <v>1.188076496124268</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.5943538769497536</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="C17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>1</v>
       </c>
       <c r="B18" t="n">
-        <v>0.7604604959487915</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.5687868757522665</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="C18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>1</v>
       </c>
       <c r="B19" t="n">
-        <v>0.3927375078201294</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.5385641082539223</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="C19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>1</v>
       </c>
       <c r="B20" t="n">
-        <v>0.1521394550800323</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.4964259252301417</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="C20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>1</v>
       </c>
       <c r="B21" t="n">
-        <v>0.1893852353096008</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0.5063686593784951</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="C21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>1</v>
       </c>
       <c r="B22" t="n">
-        <v>0.3584904074668884</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.5351709825190483</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="C22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>1</v>
       </c>
       <c r="B23" t="n">
-        <v>1.732795655727386</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0.6142393038026057</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="C23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>1</v>
       </c>
       <c r="B24" t="n">
-        <v>7.797777414321899</v>
-      </c>
-      <c r="C24" t="n">
-        <v>0.6806030556908809</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="C24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>1</v>
       </c>
       <c r="B25" t="n">
-        <v>7.703715741634369</v>
-      </c>
-      <c r="C25" t="n">
-        <v>0.6802084729424678</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="C25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>1</v>
       </c>
       <c r="B26" t="n">
-        <v>7.546605706214905</v>
-      </c>
-      <c r="C26" t="n">
-        <v>0.679498283599969</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="C26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>1</v>
       </c>
       <c r="B27" t="n">
-        <v>7.392256557941437</v>
-      </c>
-      <c r="C27" t="n">
-        <v>0.6781568275182508</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="C27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>1</v>
       </c>
       <c r="B28" t="n">
-        <v>7.395965576171875</v>
-      </c>
-      <c r="C28" t="n">
-        <v>0.6781568275182508</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="C28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>1</v>
       </c>
       <c r="B29" t="n">
-        <v>6.980659067630768</v>
-      </c>
-      <c r="C29" t="n">
-        <v>0.6750004039495252</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="C29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>1</v>
       </c>
       <c r="B30" t="n">
-        <v>1.718828499317169</v>
-      </c>
-      <c r="C30" t="n">
-        <v>0.6106883449829184</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="C30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>1</v>
       </c>
       <c r="B31" t="n">
-        <v>1.70359879732132</v>
-      </c>
-      <c r="C31" t="n">
-        <v>0.6093468353501521</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="C31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>1</v>
       </c>
       <c r="B32" t="n">
-        <v>1.45700341463089</v>
-      </c>
-      <c r="C32" t="n">
-        <v>0.6018503591767512</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="C32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>1</v>
       </c>
       <c r="B33" t="n">
-        <v>1.053060531616211</v>
-      </c>
-      <c r="C33" t="n">
-        <v>0.5859893662127433</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="C33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>1</v>
       </c>
       <c r="B34" t="n">
-        <v>0.7484660744667053</v>
-      </c>
-      <c r="C34" t="n">
-        <v>0.5692603275529109</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="C34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>1</v>
       </c>
       <c r="B35" t="n">
-        <v>0.4264323115348816</v>
-      </c>
-      <c r="C35" t="n">
-        <v>0.5430620535626076</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="C35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>1</v>
       </c>
       <c r="B36" t="n">
-        <v>0.4174365401268005</v>
-      </c>
-      <c r="C36" t="n">
-        <v>0.5415627643815242</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="C36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>1</v>
       </c>
       <c r="B37" t="n">
-        <v>0.3278731107711792</v>
-      </c>
-      <c r="C37" t="n">
-        <v>0.5320145650184713</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="C37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>1</v>
       </c>
       <c r="B38" t="n">
-        <v>0.01601883769035339</v>
-      </c>
-      <c r="C38" t="n">
-        <v>0.4089930937043391</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="C38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>1</v>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
-      </c>
-      <c r="C39" t="n">
-        <v>0.007101944589521736</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="C39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>1</v>
       </c>
       <c r="B40" t="n">
-        <v>7.891096174716949e-05</v>
-      </c>
-      <c r="C40" t="n">
-        <v>0.01112638035556301</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="C40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>1</v>
       </c>
       <c r="B41" t="n">
-        <v>0.001183658838272095</v>
-      </c>
-      <c r="C41" t="n">
-        <v>0.1751023930701194</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="C41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>1</v>
       </c>
       <c r="B42" t="n">
-        <v>0.01152092218399048</v>
-      </c>
-      <c r="C42" t="n">
-        <v>0.3470483645214699</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="C42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>1</v>
       </c>
       <c r="B43" t="n">
-        <v>0.5173372626304626</v>
-      </c>
-      <c r="C43" t="n">
-        <v>0.552452401665505</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="C43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>1</v>
       </c>
       <c r="B44" t="n">
-        <v>0.8548374176025391</v>
-      </c>
-      <c r="C44" t="n">
-        <v>0.575888775230851</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="C44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>1</v>
       </c>
       <c r="B45" t="n">
-        <v>0.9658644199371338</v>
-      </c>
-      <c r="C45" t="n">
-        <v>0.5818070992245339</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="C45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>1</v>
       </c>
       <c r="B46" t="n">
-        <v>1.834274530410767</v>
-      </c>
-      <c r="C46" t="n">
-        <v>0.6129767461097799</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="C46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>1</v>
       </c>
       <c r="B47" t="n">
-        <v>2.958196640014648</v>
-      </c>
-      <c r="C47" t="n">
-        <v>0.6343614803045057</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="C47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>1</v>
       </c>
       <c r="B48" t="n">
-        <v>4.142485499382019</v>
-      </c>
-      <c r="C48" t="n">
-        <v>0.6510116084828041</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="C48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>1</v>
       </c>
       <c r="B49" t="n">
-        <v>7.685171961784363</v>
-      </c>
-      <c r="C49" t="n">
-        <v>0.6801295624463819</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="C49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>1</v>
       </c>
       <c r="B50" t="n">
-        <v>4.974044382572174</v>
-      </c>
-      <c r="C50" t="n">
-        <v>0.6588237569085322</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="C50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>1</v>
       </c>
       <c r="B51" t="n">
-        <v>1.935437679290771</v>
-      </c>
-      <c r="C51" t="n">
-        <v>0.6148705765954219</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="C51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>1</v>
       </c>
       <c r="B52" t="n">
-        <v>1.439406275749207</v>
-      </c>
-      <c r="C52" t="n">
-        <v>0.600824503635522</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="C52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>1</v>
       </c>
       <c r="B53" t="n">
-        <v>1.521078765392303</v>
-      </c>
-      <c r="C53" t="n">
-        <v>0.6035863919532858</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="C53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>1</v>
       </c>
       <c r="B54" t="n">
-        <v>1.555089056491852</v>
-      </c>
-      <c r="C54" t="n">
-        <v>0.6040598437539302</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="C54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>1</v>
       </c>
       <c r="B55" t="n">
-        <v>1.596911728382111</v>
-      </c>
-      <c r="C55" t="n">
-        <v>0.6051646097912453</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="C55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>1</v>
       </c>
       <c r="B56" t="n">
-        <v>5.132969975471497</v>
-      </c>
-      <c r="C56" t="n">
-        <v>0.66174343082821</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="C56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>1</v>
       </c>
       <c r="B57" t="n">
-        <v>5.628054618835449</v>
-      </c>
-      <c r="C57" t="n">
-        <v>0.6651365504949354</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="C57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>1</v>
       </c>
       <c r="B58" t="n">
-        <v>5.578735589981079</v>
-      </c>
-      <c r="C58" t="n">
-        <v>0.6657678768387996</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="C58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>1</v>
       </c>
       <c r="B59" t="n">
-        <v>5.002057671546936</v>
-      </c>
-      <c r="C59" t="n">
-        <v>0.6601652250974439</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="C59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>1</v>
       </c>
       <c r="B60" t="n">
-        <v>3.942368507385254</v>
-      </c>
-      <c r="C60" t="n">
-        <v>0.6491966531029902</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="C60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>1</v>
       </c>
       <c r="B61" t="n">
-        <v>2.171143352985382</v>
-      </c>
-      <c r="C61" t="n">
-        <v>0.6197630450478755</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="C61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>1</v>
       </c>
       <c r="B62" t="n">
-        <v>1.887302219867706</v>
-      </c>
-      <c r="C62" t="n">
-        <v>0.6143971308483742</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="C62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>1</v>
       </c>
       <c r="B63" t="n">
-        <v>1.894009649753571</v>
-      </c>
-      <c r="C63" t="n">
-        <v>0.614239297749009</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="C63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>1</v>
       </c>
       <c r="B64" t="n">
-        <v>4.167420983314514</v>
-      </c>
-      <c r="C64" t="n">
-        <v>0.6503013716428541</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="C64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>1</v>
       </c>
       <c r="B65" t="n">
-        <v>3.541187405586243</v>
-      </c>
-      <c r="C65" t="n">
-        <v>0.6439096615067683</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="C65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>1</v>
       </c>
       <c r="B66" t="n">
-        <v>2.159385681152344</v>
-      </c>
-      <c r="C66" t="n">
-        <v>0.6192895993008278</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="C66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>1</v>
       </c>
       <c r="B67" t="n">
-        <v>2.134686827659607</v>
-      </c>
-      <c r="C67" t="n">
-        <v>0.6196051998413168</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="C67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>1</v>
       </c>
       <c r="B68" t="n">
-        <v>5.530994594097137</v>
-      </c>
-      <c r="C68" t="n">
-        <v>0.6651365444413386</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="C68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="n">
         <v>1</v>
       </c>
       <c r="B69" t="n">
-        <v>7.770000636577606</v>
-      </c>
-      <c r="C69" t="n">
-        <v>0.6802873955457471</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="C69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="n">
         <v>1</v>
       </c>
       <c r="B70" t="n">
-        <v>7.851436138153076</v>
-      </c>
-      <c r="C70" t="n">
-        <v>0.6810764953843318</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="C70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="n">
         <v>1</v>
       </c>
       <c r="B71" t="n">
-        <v>7.136744439601898</v>
-      </c>
-      <c r="C71" t="n">
-        <v>0.6766575262299739</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="C71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="n">
         <v>1</v>
       </c>
       <c r="B72" t="n">
-        <v>3.362297117710114</v>
-      </c>
-      <c r="C72" t="n">
-        <v>0.6405954048386775</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="C72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="n">
         <v>1</v>
       </c>
       <c r="B73" t="n">
-        <v>2.191896915435791</v>
-      </c>
-      <c r="C73" t="n">
-        <v>0.6197630511014722</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="C73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="n">
         <v>1</v>
       </c>
       <c r="B74" t="n">
-        <v>1.792609632015228</v>
-      </c>
-      <c r="C74" t="n">
-        <v>0.6115563674247824</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="C74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="n">
         <v>1</v>
       </c>
       <c r="B75" t="n">
-        <v>1.600068032741547</v>
-      </c>
-      <c r="C75" t="n">
-        <v>0.6058748051873408</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="C75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="n">
         <v>1</v>
       </c>
       <c r="B76" t="n">
-        <v>1.637234926223755</v>
-      </c>
-      <c r="C76" t="n">
-        <v>0.607689754513558</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="C76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="n">
         <v>1</v>
       </c>
       <c r="B77" t="n">
-        <v>1.843822658061981</v>
-      </c>
-      <c r="C77" t="n">
-        <v>0.614949481037911</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="C77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="n">
         <v>1</v>
       </c>
       <c r="B78" t="n">
-        <v>2.594340324401855</v>
-      </c>
-      <c r="C78" t="n">
-        <v>0.6288377330056392</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="C78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="n">
         <v>1</v>
       </c>
       <c r="B79" t="n">
-        <v>7.818530559539795</v>
-      </c>
-      <c r="C79" t="n">
-        <v>0.6808397517888807</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="C79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="n">
         <v>1</v>
       </c>
       <c r="B80" t="n">
-        <v>7.498075067996979</v>
-      </c>
-      <c r="C80" t="n">
-        <v>0.6788670168607496</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="C80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="n">
         <v>1</v>
       </c>
       <c r="B81" t="n">
-        <v>7.055860817432404</v>
-      </c>
-      <c r="C81" t="n">
-        <v>0.6759472833364271</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="C81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="n">
         <v>1</v>
       </c>
       <c r="B82" t="n">
-        <v>7.003858864307404</v>
-      </c>
-      <c r="C82" t="n">
-        <v>0.6757895098417066</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="C82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="n">
         <v>1</v>
       </c>
       <c r="B83" t="n">
-        <v>6.902695715427399</v>
-      </c>
-      <c r="C83" t="n">
-        <v>0.6750792669481598</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="C83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="n">
         <v>1</v>
       </c>
       <c r="B84" t="n">
-        <v>6.89764529466629</v>
-      </c>
-      <c r="C84" t="n">
-        <v>0.6751582309952937</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="C84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="n">
         <v>1</v>
       </c>
       <c r="B85" t="n">
-        <v>6.865528583526611</v>
-      </c>
-      <c r="C85" t="n">
-        <v>0.6746847438043915</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="C85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="n">
         <v>1</v>
       </c>
       <c r="B86" t="n">
-        <v>6.859215974807739</v>
-      </c>
-      <c r="C86" t="n">
-        <v>0.6747636482468806</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="C86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="n">
         <v>1</v>
       </c>
       <c r="B87" t="n">
-        <v>6.849115610122681</v>
-      </c>
-      <c r="C87" t="n">
-        <v>0.6746058212011121</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="C87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="n">
         <v>1</v>
       </c>
       <c r="B88" t="n">
-        <v>6.822916984558105</v>
-      </c>
-      <c r="C88" t="n">
-        <v>0.6744479820481502</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="C88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="n">
         <v>1</v>
       </c>
       <c r="B89" t="n">
-        <v>6.819602966308594</v>
-      </c>
-      <c r="C89" t="n">
-        <v>0.6743690715520643</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="C89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="n">
         <v>1</v>
       </c>
       <c r="B90" t="n">
-        <v>6.810606956481934</v>
-      </c>
-      <c r="C90" t="n">
-        <v>0.6742901610559784</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="C90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="n">
         <v>1</v>
       </c>
       <c r="B91" t="n">
-        <v>6.795535087585449</v>
-      </c>
-      <c r="C91" t="n">
-        <v>0.6742112980573438</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="C91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="n">
         <v>1</v>
       </c>
       <c r="B92" t="n">
-        <v>6.79853367805481</v>
-      </c>
-      <c r="C92" t="n">
-        <v>0.6742112980573438</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="C92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="n">
         <v>1</v>
       </c>
       <c r="B93" t="n">
-        <v>6.724042296409607</v>
-      </c>
-      <c r="C93" t="n">
-        <v>0.6731854425161146</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="C93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="n">
         <v>1</v>
       </c>
       <c r="B94" t="n">
-        <v>6.605440020561218</v>
-      </c>
-      <c r="C94" t="n">
-        <v>0.6736588761559688</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="C94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="n">
         <v>1</v>
       </c>
       <c r="B95" t="n">
-        <v>2.118904590606689</v>
-      </c>
-      <c r="C95" t="n">
-        <v>0.6162910027778707</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="C95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="n">
         <v>1</v>
       </c>
       <c r="B96" t="n">
-        <v>1.178054749965668</v>
-      </c>
-      <c r="C96" t="n">
-        <v>0.5906450910842977</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="C96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="n">
         <v>1</v>
       </c>
       <c r="B97" t="n">
-        <v>1.128420054912567</v>
-      </c>
-      <c r="C97" t="n">
-        <v>0.5885144695057534</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="C97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="n">
         <v>1</v>
       </c>
       <c r="B98" t="n">
-        <v>1.026467680931091</v>
-      </c>
-      <c r="C98" t="n">
-        <v>0.5841744108474813</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="C98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="n">
         <v>1</v>
       </c>
       <c r="B99" t="n">
-        <v>0.9533177018165588</v>
-      </c>
-      <c r="C99" t="n">
-        <v>0.581175820378121</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="C99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="n">
         <v>1</v>
       </c>
       <c r="B100" t="n">
-        <v>0.9552115797996521</v>
-      </c>
-      <c r="C100" t="n">
-        <v>0.5809390828362666</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="C100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="n">
         <v>1</v>
       </c>
       <c r="B101" t="n">
-        <v>0.9608142375946045</v>
-      </c>
-      <c r="C101" t="n">
-        <v>0.5814914330258034</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="C101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="n">
         <v>1</v>
       </c>
       <c r="B102" t="n">
-        <v>0.9617611169815063</v>
-      </c>
-      <c r="C102" t="n">
-        <v>0.581570349575486</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="C102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="n">
         <v>1</v>
       </c>
       <c r="B103" t="n">
-        <v>0.9664957523345947</v>
-      </c>
-      <c r="C103" t="n">
-        <v>0.5817281766212545</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="C103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="n">
         <v>1</v>
       </c>
       <c r="B104" t="n">
-        <v>0.968389630317688</v>
-      </c>
-      <c r="C104" t="n">
-        <v>0.5819649323238991</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="C104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="n">
         <v>1</v>
       </c>
       <c r="B105" t="n">
-        <v>0.9690208435058594</v>
-      </c>
-      <c r="C105" t="n">
-        <v>0.5819649262703024</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="C105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="n">
         <v>1</v>
       </c>
       <c r="B106" t="n">
-        <v>0.9711514711380005</v>
-      </c>
-      <c r="C106" t="n">
-        <v>0.582043842819985</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="C106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="n">
         <v>1</v>
       </c>
       <c r="B107" t="n">
-        <v>0.9718616604804993</v>
-      </c>
-      <c r="C107" t="n">
-        <v>0.5819649383774959</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="C107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="n">
         <v>1</v>
       </c>
       <c r="B108" t="n">
-        <v>0.9720983505249023</v>
-      </c>
-      <c r="C108" t="n">
-        <v>0.5819649323238991</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="C108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" t="n">
         <v>1</v>
       </c>
       <c r="B109" t="n">
-        <v>0.9722562432289124</v>
-      </c>
-      <c r="C109" t="n">
-        <v>0.5822016163147055</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="C109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" t="n">
         <v>1</v>
       </c>
       <c r="B110" t="n">
-        <v>0.9728086590766907</v>
-      </c>
-      <c r="C110" t="n">
-        <v>0.5821227058186196</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="C110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" t="n">
         <v>1</v>
       </c>
       <c r="B111" t="n">
-        <v>0.9731242060661316</v>
-      </c>
-      <c r="C111" t="n">
-        <v>0.5821227058186196</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="C111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="n">
         <v>1</v>
       </c>
       <c r="B112" t="n">
-        <v>0.9729664921760559</v>
-      </c>
-      <c r="C112" t="n">
-        <v>0.5820437953225337</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="C112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" t="n">
         <v>1</v>
       </c>
       <c r="B113" t="n">
-        <v>0.9734398126602173</v>
-      </c>
-      <c r="C113" t="n">
-        <v>0.5821227118722163</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="C113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" t="n">
         <v>1</v>
       </c>
       <c r="B114" t="n">
-        <v>0.9735187888145447</v>
-      </c>
-      <c r="C114" t="n">
-        <v>0.5823594554676674</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="C114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" t="n">
         <v>1</v>
       </c>
       <c r="B115" t="n">
-        <v>0.9737555384635925</v>
-      </c>
-      <c r="C115" t="n">
-        <v>0.5821227058186196</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="C115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" t="n">
         <v>1</v>
       </c>
       <c r="B116" t="n">
-        <v>0.9737555384635925</v>
-      </c>
-      <c r="C116" t="n">
-        <v>0.5822805328643881</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="C116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" t="n">
         <v>1</v>
       </c>
       <c r="B117" t="n">
-        <v>0.9739922881126404</v>
-      </c>
-      <c r="C117" t="n">
-        <v>0.5822016223683022</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="C117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" t="n">
         <v>1</v>
       </c>
       <c r="B118" t="n">
-        <v>0.9739922881126404</v>
-      </c>
-      <c r="C118" t="n">
-        <v>0.5820437953225337</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="C118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" t="n">
         <v>1</v>
       </c>
       <c r="B119" t="n">
-        <v>0.9738344550132751</v>
-      </c>
-      <c r="C119" t="n">
-        <v>0.5822805328643881</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="C119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" t="n">
         <v>1</v>
       </c>
       <c r="B120" t="n">
-        <v>0.9743078947067261</v>
-      </c>
-      <c r="C120" t="n">
-        <v>0.5820438488735817</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="C120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" t="n">
         <v>1</v>
       </c>
       <c r="B121" t="n">
-        <v>0.9743868708610535</v>
-      </c>
-      <c r="C121" t="n">
-        <v>0.5822016223683022</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="C121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" t="n">
         <v>1</v>
       </c>
       <c r="B122" t="n">
-        <v>0.9744657874107361</v>
-      </c>
-      <c r="C122" t="n">
-        <v>0.5821227058186196</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="C122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" t="n">
         <v>1</v>
       </c>
       <c r="B123" t="n">
-        <v>0.9743868708610535</v>
-      </c>
-      <c r="C123" t="n">
-        <v>0.5822016223683022</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="C123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" t="n">
         <v>1</v>
       </c>
       <c r="B124" t="n">
-        <v>0.9747024774551392</v>
-      </c>
-      <c r="C124" t="n">
-        <v>0.5821227058186196</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="C124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" t="n">
         <v>1</v>
       </c>
       <c r="B125" t="n">
-        <v>0.9743079543113708</v>
-      </c>
-      <c r="C125" t="n">
-        <v>0.5822016284218989</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="C125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" t="n">
         <v>1</v>
       </c>
       <c r="B126" t="n">
-        <v>0.9746236205101013</v>
-      </c>
-      <c r="C126" t="n">
-        <v>0.5822805389179848</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="C126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" t="n">
         <v>1</v>
       </c>
       <c r="B127" t="n">
-        <v>0.9745445847511292</v>
-      </c>
-      <c r="C127" t="n">
-        <v>0.5821227058186196</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="C127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" t="n">
         <v>1</v>
       </c>
       <c r="B128" t="n">
-        <v>0.9746235013008118</v>
-      </c>
-      <c r="C128" t="n">
-        <v>0.5822016223683022</v>
+        <v>126</v>
+      </c>
+      <c r="C128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>1</v>
+      </c>
+      <c r="B129" t="n">
+        <v>127</v>
+      </c>
+      <c r="C129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>1</v>
+      </c>
+      <c r="B130" t="n">
+        <v>128</v>
+      </c>
+      <c r="C130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>1</v>
+      </c>
+      <c r="B131" t="n">
+        <v>129</v>
+      </c>
+      <c r="C131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>1</v>
+      </c>
+      <c r="B132" t="n">
+        <v>130</v>
+      </c>
+      <c r="C132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>1</v>
+      </c>
+      <c r="B133" t="n">
+        <v>131</v>
+      </c>
+      <c r="C133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>1</v>
+      </c>
+      <c r="B134" t="n">
+        <v>132</v>
+      </c>
+      <c r="C134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>1</v>
+      </c>
+      <c r="B135" t="n">
+        <v>133</v>
+      </c>
+      <c r="C135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>1</v>
+      </c>
+      <c r="B136" t="n">
+        <v>134</v>
+      </c>
+      <c r="C136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>1</v>
+      </c>
+      <c r="B137" t="n">
+        <v>135</v>
+      </c>
+      <c r="C137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>1</v>
+      </c>
+      <c r="B138" t="n">
+        <v>136</v>
+      </c>
+      <c r="C138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>1</v>
+      </c>
+      <c r="B139" t="n">
+        <v>137</v>
+      </c>
+      <c r="C139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>1</v>
+      </c>
+      <c r="B140" t="n">
+        <v>138</v>
+      </c>
+      <c r="C140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>1</v>
+      </c>
+      <c r="B141" t="n">
+        <v>139</v>
+      </c>
+      <c r="C141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>1</v>
+      </c>
+      <c r="B142" t="n">
+        <v>140</v>
+      </c>
+      <c r="C142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>1</v>
+      </c>
+      <c r="B143" t="n">
+        <v>141</v>
+      </c>
+      <c r="C143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>1</v>
+      </c>
+      <c r="B144" t="n">
+        <v>142</v>
+      </c>
+      <c r="C144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>1</v>
+      </c>
+      <c r="B145" t="n">
+        <v>143</v>
+      </c>
+      <c r="C145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>1</v>
+      </c>
+      <c r="B146" t="n">
+        <v>144</v>
+      </c>
+      <c r="C146" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>1</v>
+      </c>
+      <c r="B147" t="n">
+        <v>145</v>
+      </c>
+      <c r="C147" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>1</v>
+      </c>
+      <c r="B148" t="n">
+        <v>146</v>
+      </c>
+      <c r="C148" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>1</v>
+      </c>
+      <c r="B149" t="n">
+        <v>147</v>
+      </c>
+      <c r="C149" t="n">
+        <v>7.915496826171875e-05</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>1</v>
+      </c>
+      <c r="B150" t="n">
+        <v>148</v>
+      </c>
+      <c r="C150" t="n">
+        <v>7.915496826171875e-05</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>1</v>
+      </c>
+      <c r="B151" t="n">
+        <v>149</v>
+      </c>
+      <c r="C151" t="n">
+        <v>7.915496826171875e-05</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>1</v>
+      </c>
+      <c r="B152" t="n">
+        <v>150</v>
+      </c>
+      <c r="C152" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>1</v>
+      </c>
+      <c r="B153" t="n">
+        <v>151</v>
+      </c>
+      <c r="C153" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>1</v>
+      </c>
+      <c r="B154" t="n">
+        <v>152</v>
+      </c>
+      <c r="C154" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>1</v>
+      </c>
+      <c r="B155" t="n">
+        <v>153</v>
+      </c>
+      <c r="C155" t="n">
+        <v>7.915496826171875e-05</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>1</v>
+      </c>
+      <c r="B156" t="n">
+        <v>154</v>
+      </c>
+      <c r="C156" t="n">
+        <v>7.915496826171875e-05</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>1</v>
+      </c>
+      <c r="B157" t="n">
+        <v>155</v>
+      </c>
+      <c r="C157" t="n">
+        <v>7.915496826171875e-05</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>1</v>
+      </c>
+      <c r="B158" t="n">
+        <v>156</v>
+      </c>
+      <c r="C158" t="n">
+        <v>7.915496826171875e-05</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>1</v>
+      </c>
+      <c r="B159" t="n">
+        <v>157</v>
+      </c>
+      <c r="C159" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>1</v>
+      </c>
+      <c r="B160" t="n">
+        <v>158</v>
+      </c>
+      <c r="C160" t="n">
+        <v>7.915496826171875e-05</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>1</v>
+      </c>
+      <c r="B161" t="n">
+        <v>159</v>
+      </c>
+      <c r="C161" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>1</v>
+      </c>
+      <c r="B162" t="n">
+        <v>160</v>
+      </c>
+      <c r="C162" t="n">
+        <v>7.915496826171875e-05</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>1</v>
+      </c>
+      <c r="B163" t="n">
+        <v>161</v>
+      </c>
+      <c r="C163" t="n">
+        <v>7.915496826171875e-05</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>1</v>
+      </c>
+      <c r="B164" t="n">
+        <v>162</v>
+      </c>
+      <c r="C164" t="n">
+        <v>7.915496826171875e-05</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>1</v>
+      </c>
+      <c r="B165" t="n">
+        <v>163</v>
+      </c>
+      <c r="C165" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>1</v>
+      </c>
+      <c r="B166" t="n">
+        <v>164</v>
+      </c>
+      <c r="C166" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>1</v>
+      </c>
+      <c r="B167" t="n">
+        <v>165</v>
+      </c>
+      <c r="C167" t="n">
+        <v>7.915496826171875e-05</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>1</v>
+      </c>
+      <c r="B168" t="n">
+        <v>166</v>
+      </c>
+      <c r="C168" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>1</v>
+      </c>
+      <c r="B169" t="n">
+        <v>167</v>
+      </c>
+      <c r="C169" t="n">
+        <v>7.915496826171875e-05</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>1</v>
+      </c>
+      <c r="B170" t="n">
+        <v>168</v>
+      </c>
+      <c r="C170" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>1</v>
+      </c>
+      <c r="B171" t="n">
+        <v>169</v>
+      </c>
+      <c r="C171" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>1</v>
+      </c>
+      <c r="B172" t="n">
+        <v>170</v>
+      </c>
+      <c r="C172" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>1</v>
+      </c>
+      <c r="B173" t="n">
+        <v>171</v>
+      </c>
+      <c r="C173" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>1</v>
+      </c>
+      <c r="B174" t="n">
+        <v>172</v>
+      </c>
+      <c r="C174" t="n">
+        <v>7.915496826171875e-05</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>1</v>
+      </c>
+      <c r="B175" t="n">
+        <v>173</v>
+      </c>
+      <c r="C175" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>1</v>
+      </c>
+      <c r="B176" t="n">
+        <v>174</v>
+      </c>
+      <c r="C176" t="n">
+        <v>7.915496826171875e-05</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="n">
+        <v>1</v>
+      </c>
+      <c r="B177" t="n">
+        <v>175</v>
+      </c>
+      <c r="C177" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="n">
+        <v>1</v>
+      </c>
+      <c r="B178" t="n">
+        <v>176</v>
+      </c>
+      <c r="C178" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="n">
+        <v>1</v>
+      </c>
+      <c r="B179" t="n">
+        <v>177</v>
+      </c>
+      <c r="C179" t="n">
+        <v>7.915496826171875e-05</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="n">
+        <v>1</v>
+      </c>
+      <c r="B180" t="n">
+        <v>178</v>
+      </c>
+      <c r="C180" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="n">
+        <v>1</v>
+      </c>
+      <c r="B181" t="n">
+        <v>179</v>
+      </c>
+      <c r="C181" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="n">
+        <v>1</v>
+      </c>
+      <c r="B182" t="n">
+        <v>180</v>
+      </c>
+      <c r="C182" t="n">
+        <v>7.915496826171875e-05</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="n">
+        <v>1</v>
+      </c>
+      <c r="B183" t="n">
+        <v>181</v>
+      </c>
+      <c r="C183" t="n">
+        <v>7.915496826171875e-05</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="n">
+        <v>1</v>
+      </c>
+      <c r="B184" t="n">
+        <v>182</v>
+      </c>
+      <c r="C184" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="n">
+        <v>1</v>
+      </c>
+      <c r="B185" t="n">
+        <v>183</v>
+      </c>
+      <c r="C185" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="n">
+        <v>1</v>
+      </c>
+      <c r="B186" t="n">
+        <v>184</v>
+      </c>
+      <c r="C186" t="n">
+        <v>7.915496826171875e-05</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="n">
+        <v>1</v>
+      </c>
+      <c r="B187" t="n">
+        <v>185</v>
+      </c>
+      <c r="C187" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="n">
+        <v>1</v>
+      </c>
+      <c r="B188" t="n">
+        <v>186</v>
+      </c>
+      <c r="C188" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="n">
+        <v>1</v>
+      </c>
+      <c r="B189" t="n">
+        <v>187</v>
+      </c>
+      <c r="C189" t="n">
+        <v>7.915496826171875e-05</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="n">
+        <v>1</v>
+      </c>
+      <c r="B190" t="n">
+        <v>188</v>
+      </c>
+      <c r="C190" t="n">
+        <v>7.915496826171875e-05</v>
       </c>
     </row>
   </sheetData>
